--- a/data/pca/factorExposure/factorExposure_2009-07-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0167528024946812</v>
+        <v>0.01654324202072884</v>
       </c>
       <c r="C2">
-        <v>0.001327862998637937</v>
+        <v>0.0009390305681535595</v>
       </c>
       <c r="D2">
-        <v>0.007773711969464907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009299025481067315</v>
+      </c>
+      <c r="E2">
+        <v>-0.00127239877137621</v>
+      </c>
+      <c r="F2">
+        <v>0.01246412760928073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09059739744252741</v>
+        <v>0.09126089941964285</v>
       </c>
       <c r="C4">
-        <v>0.01965679596293794</v>
+        <v>0.01449041553026994</v>
       </c>
       <c r="D4">
-        <v>0.07298317703004852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08338222211641259</v>
+      </c>
+      <c r="E4">
+        <v>-0.0283927590748623</v>
+      </c>
+      <c r="F4">
+        <v>-0.03248536188364409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1517279216134295</v>
+        <v>0.1608416203247428</v>
       </c>
       <c r="C6">
-        <v>0.02876672048315991</v>
+        <v>0.02783303984740711</v>
       </c>
       <c r="D6">
-        <v>-0.03136908446530329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.026751124048636</v>
+      </c>
+      <c r="E6">
+        <v>-0.00889537085426631</v>
+      </c>
+      <c r="F6">
+        <v>-0.04160718493857168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06173793809134745</v>
+        <v>0.06264406506521984</v>
       </c>
       <c r="C7">
-        <v>0.002175813757472891</v>
+        <v>-0.001629390303990624</v>
       </c>
       <c r="D7">
-        <v>0.04444600229410816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05269598570917345</v>
+      </c>
+      <c r="E7">
+        <v>-0.01325146886833537</v>
+      </c>
+      <c r="F7">
+        <v>-0.04887784823992525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06234236661141352</v>
+        <v>0.05786776905220364</v>
       </c>
       <c r="C8">
-        <v>-0.01074136846884762</v>
+        <v>-0.01247465693844345</v>
       </c>
       <c r="D8">
-        <v>0.02626504081097058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03072961206509111</v>
+      </c>
+      <c r="E8">
+        <v>-0.01710452625613869</v>
+      </c>
+      <c r="F8">
+        <v>0.02570387601113006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07067691622162402</v>
+        <v>0.07069379335577378</v>
       </c>
       <c r="C9">
-        <v>0.01641374004709866</v>
+        <v>0.0102847484792052</v>
       </c>
       <c r="D9">
-        <v>0.07377965839601822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08639650032889326</v>
+      </c>
+      <c r="E9">
+        <v>-0.02494617114041327</v>
+      </c>
+      <c r="F9">
+        <v>-0.04875033142693634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08555803359431062</v>
+        <v>0.08910467536794592</v>
       </c>
       <c r="C10">
-        <v>0.01401866650856839</v>
+        <v>0.02135576314023523</v>
       </c>
       <c r="D10">
-        <v>-0.1656081855182889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1603443659630503</v>
+      </c>
+      <c r="E10">
+        <v>0.03273414000824935</v>
+      </c>
+      <c r="F10">
+        <v>0.05751251474297073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09119408097650693</v>
+        <v>0.08774203423454337</v>
       </c>
       <c r="C11">
-        <v>0.01741348215887789</v>
+        <v>0.01115594727844839</v>
       </c>
       <c r="D11">
-        <v>0.1050903304082167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1178570552828563</v>
+      </c>
+      <c r="E11">
+        <v>-0.04774754980813671</v>
+      </c>
+      <c r="F11">
+        <v>-0.02318051940137876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09600891305291778</v>
+        <v>0.09032209426729182</v>
       </c>
       <c r="C12">
-        <v>0.01509000363338978</v>
+        <v>0.008225388170767131</v>
       </c>
       <c r="D12">
-        <v>0.1080008503228961</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.132083237250934</v>
+      </c>
+      <c r="E12">
+        <v>-0.04681776023315296</v>
+      </c>
+      <c r="F12">
+        <v>-0.02973047461639682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04402953299269208</v>
+        <v>0.04373588614286164</v>
       </c>
       <c r="C13">
-        <v>0.00569653774544719</v>
+        <v>0.00239081237049005</v>
       </c>
       <c r="D13">
-        <v>0.03586365188308341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05338757496164308</v>
+      </c>
+      <c r="E13">
+        <v>0.0006632392876474375</v>
+      </c>
+      <c r="F13">
+        <v>-0.003702440844569989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01865591369518428</v>
+        <v>0.02328976997739576</v>
       </c>
       <c r="C14">
-        <v>0.01486394571316789</v>
+        <v>0.01362349632428799</v>
       </c>
       <c r="D14">
-        <v>0.02667880971710208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03317848398871451</v>
+      </c>
+      <c r="E14">
+        <v>-0.01809353760934934</v>
+      </c>
+      <c r="F14">
+        <v>-0.01338518457126013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03335843770788973</v>
+        <v>0.03309691243583273</v>
       </c>
       <c r="C15">
-        <v>0.007366311472912504</v>
+        <v>0.005168321111952116</v>
       </c>
       <c r="D15">
-        <v>0.03910966263168524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04634229794282399</v>
+      </c>
+      <c r="E15">
+        <v>-0.007689783344584904</v>
+      </c>
+      <c r="F15">
+        <v>-0.02968823692315432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07518862428418178</v>
+        <v>0.0729248273999082</v>
       </c>
       <c r="C16">
-        <v>0.00785994432542326</v>
+        <v>0.001436730308292557</v>
       </c>
       <c r="D16">
-        <v>0.106144480358903</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284190540456441</v>
+      </c>
+      <c r="E16">
+        <v>-0.06198251065119748</v>
+      </c>
+      <c r="F16">
+        <v>-0.02567180142946451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0002310078144585183</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002871700216655927</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001445537664081563</v>
+      </c>
+      <c r="E17">
+        <v>-0.001141073051188127</v>
+      </c>
+      <c r="F17">
+        <v>0.002480381620770692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01797820270442698</v>
+        <v>0.0392807006827228</v>
       </c>
       <c r="C18">
-        <v>-0.003192969459567838</v>
+        <v>-0.002989901168501078</v>
       </c>
       <c r="D18">
-        <v>0.0293398770348062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01538953870430755</v>
+      </c>
+      <c r="E18">
+        <v>0.007843442695448474</v>
+      </c>
+      <c r="F18">
+        <v>0.008839659824211036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06366759794967189</v>
+        <v>0.06233644566340231</v>
       </c>
       <c r="C20">
-        <v>0.005734541175315668</v>
+        <v>0.0007601229290669158</v>
       </c>
       <c r="D20">
-        <v>0.06387363417077677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07869917743423255</v>
+      </c>
+      <c r="E20">
+        <v>-0.05735845720605837</v>
+      </c>
+      <c r="F20">
+        <v>-0.02914743695750894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03846164502899892</v>
+        <v>0.0413297930737641</v>
       </c>
       <c r="C21">
-        <v>0.009586779746300298</v>
+        <v>0.00655777729426087</v>
       </c>
       <c r="D21">
-        <v>0.03537724715949825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03772065051473244</v>
+      </c>
+      <c r="E21">
+        <v>0.001006813952407037</v>
+      </c>
+      <c r="F21">
+        <v>0.0264540773226116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0416433937148047</v>
+        <v>0.04439868182088072</v>
       </c>
       <c r="C22">
-        <v>0.001693721140596082</v>
+        <v>0.0007485617621360496</v>
       </c>
       <c r="D22">
-        <v>-0.003108639897114229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006023006577532587</v>
+      </c>
+      <c r="E22">
+        <v>-0.03608918341413726</v>
+      </c>
+      <c r="F22">
+        <v>0.05015542419842974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04160621514666542</v>
+        <v>0.04437457987495518</v>
       </c>
       <c r="C23">
-        <v>0.001683436721414163</v>
+        <v>0.0007396467598026956</v>
       </c>
       <c r="D23">
-        <v>-0.003085753344664983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006037480705015444</v>
+      </c>
+      <c r="E23">
+        <v>-0.03627185509278322</v>
+      </c>
+      <c r="F23">
+        <v>0.0501271779419277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08189847793067355</v>
+        <v>0.07872497340681618</v>
       </c>
       <c r="C24">
-        <v>0.008152482617975272</v>
+        <v>0.002110174402924973</v>
       </c>
       <c r="D24">
-        <v>0.1095847311653789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206827619622262</v>
+      </c>
+      <c r="E24">
+        <v>-0.04966957472067928</v>
+      </c>
+      <c r="F24">
+        <v>-0.02830247059480846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08738167620214789</v>
+        <v>0.08388914506260567</v>
       </c>
       <c r="C25">
-        <v>0.01083478576498596</v>
+        <v>0.004811795138534111</v>
       </c>
       <c r="D25">
-        <v>0.09544784470609931</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1099831303081238</v>
+      </c>
+      <c r="E25">
+        <v>-0.03283494260011593</v>
+      </c>
+      <c r="F25">
+        <v>-0.02622767985827688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05768808387722136</v>
+        <v>0.05964833264107477</v>
       </c>
       <c r="C26">
-        <v>0.01745532235694177</v>
+        <v>0.01439023893693597</v>
       </c>
       <c r="D26">
-        <v>0.02360049925620236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04321249781281843</v>
+      </c>
+      <c r="E26">
+        <v>-0.02959597988902521</v>
+      </c>
+      <c r="F26">
+        <v>0.008797806007003302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1330495254650507</v>
+        <v>0.1421050772498999</v>
       </c>
       <c r="C28">
-        <v>0.01298633444032667</v>
+        <v>0.02280094539306982</v>
       </c>
       <c r="D28">
-        <v>-0.2705640690882721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2608594608532959</v>
+      </c>
+      <c r="E28">
+        <v>0.06862806999220017</v>
+      </c>
+      <c r="F28">
+        <v>-0.005705061322073937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02536015376721319</v>
+        <v>0.02869993059576607</v>
       </c>
       <c r="C29">
-        <v>0.009619380024971945</v>
+        <v>0.008803784127141744</v>
       </c>
       <c r="D29">
-        <v>0.02499080470643052</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0310840770645037</v>
+      </c>
+      <c r="E29">
+        <v>-0.01292117533143895</v>
+      </c>
+      <c r="F29">
+        <v>0.01284985515469642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06295044313467631</v>
+        <v>0.05867821071139358</v>
       </c>
       <c r="C30">
-        <v>0.009518335184095344</v>
+        <v>0.002597381347580689</v>
       </c>
       <c r="D30">
-        <v>0.07046015962049493</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08751199991874549</v>
+      </c>
+      <c r="E30">
+        <v>-0.01396590334870854</v>
+      </c>
+      <c r="F30">
+        <v>-0.07921571459799126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05038295432999346</v>
+        <v>0.05106358740353222</v>
       </c>
       <c r="C31">
-        <v>0.01704081090973712</v>
+        <v>0.01602591547789528</v>
       </c>
       <c r="D31">
-        <v>0.02206325478589547</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02495906478021333</v>
+      </c>
+      <c r="E31">
+        <v>-0.02887017168199736</v>
+      </c>
+      <c r="F31">
+        <v>0.0007562312326850918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04691346627866054</v>
+        <v>0.05102734700620098</v>
       </c>
       <c r="C32">
-        <v>0.002158853657435387</v>
+        <v>-0.001734738611303693</v>
       </c>
       <c r="D32">
-        <v>0.02232578678491968</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03464184448680074</v>
+      </c>
+      <c r="E32">
+        <v>-0.03237627221475645</v>
+      </c>
+      <c r="F32">
+        <v>-0.002400157212212909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0912694931047625</v>
+        <v>0.08945765438656533</v>
       </c>
       <c r="C33">
-        <v>0.01366131342478605</v>
+        <v>0.006889240136180337</v>
       </c>
       <c r="D33">
-        <v>0.0835323029886394</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1033937869725636</v>
+      </c>
+      <c r="E33">
+        <v>-0.04686335438822108</v>
+      </c>
+      <c r="F33">
+        <v>-0.04297994768778105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06891048631504186</v>
+        <v>0.06749597481868172</v>
       </c>
       <c r="C34">
-        <v>0.01560362452108813</v>
+        <v>0.01033143294948693</v>
       </c>
       <c r="D34">
-        <v>0.09059981018990006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1096588653869632</v>
+      </c>
+      <c r="E34">
+        <v>-0.03593003576461837</v>
+      </c>
+      <c r="F34">
+        <v>-0.03354069896461977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02462437127242855</v>
+        <v>0.02664287967187059</v>
       </c>
       <c r="C35">
-        <v>0.003199724636242841</v>
+        <v>0.00303335503855625</v>
       </c>
       <c r="D35">
-        <v>0.006892857415134704</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01246878332025639</v>
+      </c>
+      <c r="E35">
+        <v>-0.01312472609484013</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008558796179415861</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02569299558997908</v>
+        <v>0.02766938230230067</v>
       </c>
       <c r="C36">
-        <v>0.007674768615126819</v>
+        <v>0.006869887610876699</v>
       </c>
       <c r="D36">
-        <v>0.03880111619373957</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03925646668181599</v>
+      </c>
+      <c r="E36">
+        <v>-0.01690682168591549</v>
+      </c>
+      <c r="F36">
+        <v>-0.01396666166947652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0008545332961983447</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007203805376172023</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002460582234232052</v>
+      </c>
+      <c r="E37">
+        <v>-1.964967817784671e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.001662279966156939</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1136135768879013</v>
+        <v>0.1021525983323231</v>
       </c>
       <c r="C39">
-        <v>0.02363800473097871</v>
+        <v>0.01614884106097974</v>
       </c>
       <c r="D39">
-        <v>0.1432858625616305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1516643548147681</v>
+      </c>
+      <c r="E39">
+        <v>-0.05990531330238841</v>
+      </c>
+      <c r="F39">
+        <v>-0.02119592074687973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03818955272195893</v>
+        <v>0.04296368497506093</v>
       </c>
       <c r="C40">
-        <v>0.009253014803513333</v>
+        <v>0.00758649214377999</v>
       </c>
       <c r="D40">
-        <v>0.01797337558325883</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03266919379713549</v>
+      </c>
+      <c r="E40">
+        <v>-0.001771062066148634</v>
+      </c>
+      <c r="F40">
+        <v>0.01578292590839873</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02555810391104471</v>
+        <v>0.02787172723818661</v>
       </c>
       <c r="C41">
-        <v>0.007327283484432504</v>
+        <v>0.006888684515402505</v>
       </c>
       <c r="D41">
-        <v>0.008818800965081013</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01088793189378469</v>
+      </c>
+      <c r="E41">
+        <v>-0.01225586099060453</v>
+      </c>
+      <c r="F41">
+        <v>0.007747747576800223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04233649723598592</v>
+        <v>0.04043041861735453</v>
       </c>
       <c r="C43">
-        <v>0.008312777625291685</v>
+        <v>0.007615989266563965</v>
       </c>
       <c r="D43">
-        <v>0.01586045932219652</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01951077482604514</v>
+      </c>
+      <c r="E43">
+        <v>-0.02579725547819613</v>
+      </c>
+      <c r="F43">
+        <v>0.01664216144260353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0704996178600384</v>
+        <v>0.07933983522392445</v>
       </c>
       <c r="C44">
-        <v>0.02544581269401455</v>
+        <v>0.01948727572860627</v>
       </c>
       <c r="D44">
-        <v>0.09100871441044044</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09629557695865337</v>
+      </c>
+      <c r="E44">
+        <v>-0.06300953851241492</v>
+      </c>
+      <c r="F44">
+        <v>-0.1678954491415007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02187392272630882</v>
+        <v>0.0246336195927577</v>
       </c>
       <c r="C46">
-        <v>0.004182301724587066</v>
+        <v>0.003658240773156171</v>
       </c>
       <c r="D46">
-        <v>0.004537536824377121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01327066728682549</v>
+      </c>
+      <c r="E46">
+        <v>-0.02723590728165784</v>
+      </c>
+      <c r="F46">
+        <v>0.00554821023650922</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05267279767401487</v>
+        <v>0.0521766955018147</v>
       </c>
       <c r="C47">
-        <v>0.00484965663258191</v>
+        <v>0.004283955213577768</v>
       </c>
       <c r="D47">
-        <v>0.008274190977505029</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01086143037238134</v>
+      </c>
+      <c r="E47">
+        <v>-0.02296589595888228</v>
+      </c>
+      <c r="F47">
+        <v>0.03305127841519452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04772599569352874</v>
+        <v>0.05044354502575706</v>
       </c>
       <c r="C48">
-        <v>0.004659109028681631</v>
+        <v>0.002131941963427504</v>
       </c>
       <c r="D48">
-        <v>0.04370507195174244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05017038080601732</v>
+      </c>
+      <c r="E48">
+        <v>0.004871870971023564</v>
+      </c>
+      <c r="F48">
+        <v>-0.01259308110216224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2020634993787355</v>
+        <v>0.2008379201103315</v>
       </c>
       <c r="C49">
-        <v>0.02194425722505802</v>
+        <v>0.0197836158005481</v>
       </c>
       <c r="D49">
-        <v>-0.01486590479747077</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005209655978606646</v>
+      </c>
+      <c r="E49">
+        <v>-0.03263191603852615</v>
+      </c>
+      <c r="F49">
+        <v>-0.0467277230594609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04938795451434185</v>
+        <v>0.05150104961825842</v>
       </c>
       <c r="C50">
-        <v>0.01307493410985686</v>
+        <v>0.01173217484437406</v>
       </c>
       <c r="D50">
-        <v>0.02272153527573273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02336693151328553</v>
+      </c>
+      <c r="E50">
+        <v>-0.02987978293104721</v>
+      </c>
+      <c r="F50">
+        <v>-0.01019547438888989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1558451477364724</v>
+        <v>0.1494368422238303</v>
       </c>
       <c r="C52">
-        <v>0.020478241878005</v>
+        <v>0.01864300571145765</v>
       </c>
       <c r="D52">
-        <v>0.04836158952329385</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04267975180974917</v>
+      </c>
+      <c r="E52">
+        <v>-0.02302209370231522</v>
+      </c>
+      <c r="F52">
+        <v>-0.04334314671802461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1742289624329526</v>
+        <v>0.1697654170072284</v>
       </c>
       <c r="C53">
-        <v>0.02071981609999384</v>
+        <v>0.02130250582177104</v>
       </c>
       <c r="D53">
-        <v>0.01248830596311567</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006024570102460571</v>
+      </c>
+      <c r="E53">
+        <v>-0.03065700589178105</v>
+      </c>
+      <c r="F53">
+        <v>-0.07540658310528817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01701805309106707</v>
+        <v>0.01967849007032953</v>
       </c>
       <c r="C54">
-        <v>0.01232771157982261</v>
+        <v>0.01096304037666078</v>
       </c>
       <c r="D54">
-        <v>0.02779653678208073</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03387973310235559</v>
+      </c>
+      <c r="E54">
+        <v>-0.02149115449157116</v>
+      </c>
+      <c r="F54">
+        <v>0.001618992841298859</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1169033369542762</v>
+        <v>0.1159962870092327</v>
       </c>
       <c r="C55">
-        <v>0.01848625902053356</v>
+        <v>0.01861865688030113</v>
       </c>
       <c r="D55">
-        <v>0.01045365528247665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008788393302723071</v>
+      </c>
+      <c r="E55">
+        <v>-0.02602644740158774</v>
+      </c>
+      <c r="F55">
+        <v>-0.04752191166578041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1803358519661142</v>
+        <v>0.1760854266400644</v>
       </c>
       <c r="C56">
-        <v>0.01848790246477116</v>
+        <v>0.01932146193865651</v>
       </c>
       <c r="D56">
-        <v>0.004651877034479487</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002517864479668385</v>
+      </c>
+      <c r="E56">
+        <v>-0.03322238101473011</v>
+      </c>
+      <c r="F56">
+        <v>-0.05387619367279901</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04866065774644209</v>
+        <v>0.0457851742277938</v>
       </c>
       <c r="C58">
-        <v>0.00575779684215976</v>
+        <v>-0.000314966960273522</v>
       </c>
       <c r="D58">
-        <v>0.06086944904494375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07475164522033469</v>
+      </c>
+      <c r="E58">
+        <v>-0.03541750005886751</v>
+      </c>
+      <c r="F58">
+        <v>0.03594333674211175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1630234716592439</v>
+        <v>0.1670641155695644</v>
       </c>
       <c r="C59">
-        <v>0.01464787674598127</v>
+        <v>0.02310801134997259</v>
       </c>
       <c r="D59">
-        <v>-0.227394905680758</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2184863446888565</v>
+      </c>
+      <c r="E59">
+        <v>0.04945031416909323</v>
+      </c>
+      <c r="F59">
+        <v>0.03838127570829268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2390200974319797</v>
+        <v>0.2309905857358389</v>
       </c>
       <c r="C60">
-        <v>0.002404767605661045</v>
+        <v>-0.0005745476228173585</v>
       </c>
       <c r="D60">
-        <v>0.04348360830133073</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03966558982671822</v>
+      </c>
+      <c r="E60">
+        <v>-0.006442663127573363</v>
+      </c>
+      <c r="F60">
+        <v>-0.002841632925479766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08442209028148018</v>
+        <v>0.07776264072652667</v>
       </c>
       <c r="C61">
-        <v>0.0172679783231717</v>
+        <v>0.01141682323108357</v>
       </c>
       <c r="D61">
-        <v>0.1035467415228071</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1164965279385719</v>
+      </c>
+      <c r="E61">
+        <v>-0.03829546074090037</v>
+      </c>
+      <c r="F61">
+        <v>-0.007891342868409311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1710730705386708</v>
+        <v>0.1684968864648498</v>
       </c>
       <c r="C62">
-        <v>0.02205331374274442</v>
+        <v>0.02189718793743098</v>
       </c>
       <c r="D62">
-        <v>0.005872367398306565</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005371559459175252</v>
+      </c>
+      <c r="E62">
+        <v>-0.03335135853534108</v>
+      </c>
+      <c r="F62">
+        <v>-0.04026209018288467</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04250567170559542</v>
+        <v>0.04626397997881711</v>
       </c>
       <c r="C63">
-        <v>0.005696240381175051</v>
+        <v>0.001763663732566797</v>
       </c>
       <c r="D63">
-        <v>0.04557857402258717</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06032918783706241</v>
+      </c>
+      <c r="E63">
+        <v>-0.02490682529732004</v>
+      </c>
+      <c r="F63">
+        <v>-0.0005354282139981185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1131070728322081</v>
+        <v>0.1105668655430999</v>
       </c>
       <c r="C64">
-        <v>0.01561917192097518</v>
+        <v>0.01233953351871493</v>
       </c>
       <c r="D64">
-        <v>0.03180346505915945</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0428298441796538</v>
+      </c>
+      <c r="E64">
+        <v>-0.02346008265413494</v>
+      </c>
+      <c r="F64">
+        <v>-0.02536944307922493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1425201274330525</v>
+        <v>0.1517825834389969</v>
       </c>
       <c r="C65">
-        <v>0.03460450185090302</v>
+        <v>0.03491604287732543</v>
       </c>
       <c r="D65">
-        <v>-0.05574215835274161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04739643143725508</v>
+      </c>
+      <c r="E65">
+        <v>-0.005170777052736789</v>
+      </c>
+      <c r="F65">
+        <v>-0.03840539927408309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1367376730659755</v>
+        <v>0.1226312302077849</v>
       </c>
       <c r="C66">
-        <v>0.02200966870531367</v>
+        <v>0.0145127816951069</v>
       </c>
       <c r="D66">
-        <v>0.1241664283630928</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1394168051776651</v>
+      </c>
+      <c r="E66">
+        <v>-0.06448108320353638</v>
+      </c>
+      <c r="F66">
+        <v>-0.02695087686024405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06346145059328499</v>
+        <v>0.05635144758247398</v>
       </c>
       <c r="C67">
-        <v>0.00567962549522852</v>
+        <v>0.003246115477079797</v>
       </c>
       <c r="D67">
-        <v>0.05427786944825898</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05673653936185557</v>
+      </c>
+      <c r="E67">
+        <v>-0.01780393876271496</v>
+      </c>
+      <c r="F67">
+        <v>0.03436081659459486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1068075323065706</v>
+        <v>0.1166390542275986</v>
       </c>
       <c r="C68">
-        <v>0.02291269282373282</v>
+        <v>0.03359221650255384</v>
       </c>
       <c r="D68">
-        <v>-0.2673952587744045</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611868667027656</v>
+      </c>
+      <c r="E68">
+        <v>0.08854232801749512</v>
+      </c>
+      <c r="F68">
+        <v>-0.001401605866768159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03994711397564352</v>
+        <v>0.03868736104537988</v>
       </c>
       <c r="C69">
-        <v>0.002150061326562495</v>
+        <v>0.001322101135955264</v>
       </c>
       <c r="D69">
-        <v>0.005355410901596872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008304178400603168</v>
+      </c>
+      <c r="E69">
+        <v>-0.02398461696679147</v>
+      </c>
+      <c r="F69">
+        <v>0.001452744081870739</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06644469047715708</v>
+        <v>0.06659021455280341</v>
       </c>
       <c r="C70">
-        <v>-0.02465857122849449</v>
+        <v>-0.02704932607354933</v>
       </c>
       <c r="D70">
-        <v>-0.004304444591247798</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02512386228961882</v>
+      </c>
+      <c r="E70">
+        <v>0.03209121439212788</v>
+      </c>
+      <c r="F70">
+        <v>0.1815914512511404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1255370556061706</v>
+        <v>0.1367741356837835</v>
       </c>
       <c r="C71">
-        <v>0.02692926576038429</v>
+        <v>0.03815807706533799</v>
       </c>
       <c r="D71">
-        <v>-0.2841409895661782</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2712760102214937</v>
+      </c>
+      <c r="E71">
+        <v>0.09816457394437174</v>
+      </c>
+      <c r="F71">
+        <v>-0.007225825571003897</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1381306269305833</v>
+        <v>0.1437675981700801</v>
       </c>
       <c r="C72">
-        <v>0.02797005567633065</v>
+        <v>0.02812045468692768</v>
       </c>
       <c r="D72">
-        <v>0.005077387497470472</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004486729792934101</v>
+      </c>
+      <c r="E72">
+        <v>-0.0372939807504101</v>
+      </c>
+      <c r="F72">
+        <v>-0.02936595772829691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2071891492776098</v>
+        <v>0.205393463673977</v>
       </c>
       <c r="C73">
-        <v>0.01739673340458399</v>
+        <v>0.01368191011143666</v>
       </c>
       <c r="D73">
-        <v>0.008961595464557007</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01732538602597731</v>
+      </c>
+      <c r="E73">
+        <v>-0.06727186771710578</v>
+      </c>
+      <c r="F73">
+        <v>-0.04031136431940847</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09362730661753141</v>
+        <v>0.09485972207980317</v>
       </c>
       <c r="C74">
-        <v>0.01437857233050082</v>
+        <v>0.0140915024924595</v>
       </c>
       <c r="D74">
-        <v>0.01861445254333477</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01674869067877748</v>
+      </c>
+      <c r="E74">
+        <v>-0.04448051116377372</v>
+      </c>
+      <c r="F74">
+        <v>-0.05317181752919923</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1339317478215049</v>
+        <v>0.1263485561680383</v>
       </c>
       <c r="C75">
-        <v>0.03065583566398982</v>
+        <v>0.02941731403690138</v>
       </c>
       <c r="D75">
-        <v>0.02958544493684751</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02917066754275667</v>
+      </c>
+      <c r="E75">
+        <v>-0.05730869452425895</v>
+      </c>
+      <c r="F75">
+        <v>-0.02081660585932133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08249115186193764</v>
+        <v>0.09042241232321353</v>
       </c>
       <c r="C77">
-        <v>0.01482692535352209</v>
+        <v>0.008532652391023498</v>
       </c>
       <c r="D77">
-        <v>0.1010137434340925</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1142582593393103</v>
+      </c>
+      <c r="E77">
+        <v>-0.04503146867565032</v>
+      </c>
+      <c r="F77">
+        <v>-0.033107061026478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09959445002861896</v>
+        <v>0.1006442029483399</v>
       </c>
       <c r="C78">
-        <v>0.04409605772368917</v>
+        <v>0.03867325324737112</v>
       </c>
       <c r="D78">
-        <v>0.1084945456829337</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.11131467400997</v>
+      </c>
+      <c r="E78">
+        <v>-0.0759793518594206</v>
+      </c>
+      <c r="F78">
+        <v>-0.05249828273663203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.164778647178786</v>
+        <v>0.1629240984062157</v>
       </c>
       <c r="C79">
-        <v>0.02521717936184583</v>
+        <v>0.02435384902840493</v>
       </c>
       <c r="D79">
-        <v>0.01188565238883408</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0131374012427978</v>
+      </c>
+      <c r="E79">
+        <v>-0.04417470185504734</v>
+      </c>
+      <c r="F79">
+        <v>-0.01250798838940499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08067980537227101</v>
+        <v>0.07910829702517817</v>
       </c>
       <c r="C80">
-        <v>0.001134200876638652</v>
+        <v>-0.000820697655723312</v>
       </c>
       <c r="D80">
-        <v>0.05053791297695347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05405155487106009</v>
+      </c>
+      <c r="E80">
+        <v>-0.03239575383896316</v>
+      </c>
+      <c r="F80">
+        <v>0.02480694014304273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1205881041176461</v>
+        <v>0.1174261457397589</v>
       </c>
       <c r="C81">
-        <v>0.03267626515264935</v>
+        <v>0.03297336627585184</v>
       </c>
       <c r="D81">
-        <v>0.02247060299070147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01443342994254803</v>
+      </c>
+      <c r="E81">
+        <v>-0.05520869434811554</v>
+      </c>
+      <c r="F81">
+        <v>-0.01882453265157346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660573108890952</v>
+        <v>0.1652301536369834</v>
       </c>
       <c r="C82">
-        <v>0.02601028487260905</v>
+        <v>0.02678729908737878</v>
       </c>
       <c r="D82">
-        <v>0.01288381379631779</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002582995614131545</v>
+      </c>
+      <c r="E82">
+        <v>-0.02854788157774465</v>
+      </c>
+      <c r="F82">
+        <v>-0.08173417655303213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06297424579152058</v>
+        <v>0.05732085634146328</v>
       </c>
       <c r="C83">
-        <v>0.005557318268983193</v>
+        <v>0.003227563770875091</v>
       </c>
       <c r="D83">
-        <v>0.04162420858549297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04846495805498038</v>
+      </c>
+      <c r="E83">
+        <v>-0.001130190163716886</v>
+      </c>
+      <c r="F83">
+        <v>0.03543985533673882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06309878378870717</v>
+        <v>0.05727501244498168</v>
       </c>
       <c r="C84">
-        <v>0.01417106762459043</v>
+        <v>0.01102166742930175</v>
       </c>
       <c r="D84">
-        <v>0.06623244731176428</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07193841032782444</v>
+      </c>
+      <c r="E84">
+        <v>-0.01396806108482122</v>
+      </c>
+      <c r="F84">
+        <v>-0.01490577260161338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1381549884961605</v>
+        <v>0.1342646498810484</v>
       </c>
       <c r="C85">
-        <v>0.02940518027089855</v>
+        <v>0.02935237986726639</v>
       </c>
       <c r="D85">
-        <v>0.01496174351982912</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009744583843521644</v>
+      </c>
+      <c r="E85">
+        <v>-0.03680740923408785</v>
+      </c>
+      <c r="F85">
+        <v>-0.047733810293864</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1014630151423529</v>
+        <v>0.09360804099660713</v>
       </c>
       <c r="C86">
-        <v>-0.002351627059340564</v>
+        <v>-0.005480539549294288</v>
       </c>
       <c r="D86">
-        <v>0.002991041779274611</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05121589710190362</v>
+      </c>
+      <c r="E86">
+        <v>-0.2183784819774802</v>
+      </c>
+      <c r="F86">
+        <v>0.9001949310717878</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09951179428387105</v>
+        <v>0.09367614885698593</v>
       </c>
       <c r="C87">
-        <v>0.02823059246413547</v>
+        <v>0.01959916301137333</v>
       </c>
       <c r="D87">
-        <v>0.07041658315873532</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0959364225493004</v>
+      </c>
+      <c r="E87">
+        <v>0.05140798567883518</v>
+      </c>
+      <c r="F87">
+        <v>-0.05196933297749074</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06002162026342611</v>
+        <v>0.06022982611059396</v>
       </c>
       <c r="C88">
-        <v>0.005306356172047017</v>
+        <v>0.002783519665012149</v>
       </c>
       <c r="D88">
-        <v>0.05459203976036336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05022032096701996</v>
+      </c>
+      <c r="E88">
+        <v>-0.02477154383474262</v>
+      </c>
+      <c r="F88">
+        <v>-0.01487640957901427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.118273613237132</v>
+        <v>0.1274738391548771</v>
       </c>
       <c r="C89">
-        <v>0.004056782931130098</v>
+        <v>0.01355492404987075</v>
       </c>
       <c r="D89">
-        <v>-0.2525579633013027</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2446310659260875</v>
+      </c>
+      <c r="E89">
+        <v>0.09243112727684734</v>
+      </c>
+      <c r="F89">
+        <v>0.007710814581602819</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1367039268336893</v>
+        <v>0.1513376289423128</v>
       </c>
       <c r="C90">
-        <v>0.02345929202502874</v>
+        <v>0.0348363205778399</v>
       </c>
       <c r="D90">
-        <v>-0.2689476169637735</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2683638951789624</v>
+      </c>
+      <c r="E90">
+        <v>0.1142414729529757</v>
+      </c>
+      <c r="F90">
+        <v>0.008552071729790714</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1206618280335197</v>
+        <v>0.1207070151999996</v>
       </c>
       <c r="C91">
-        <v>0.02030363368253292</v>
+        <v>0.0209381628826293</v>
       </c>
       <c r="D91">
-        <v>-0.009607686618414641</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01606395454323023</v>
+      </c>
+      <c r="E91">
+        <v>-0.05380748578184698</v>
+      </c>
+      <c r="F91">
+        <v>0.001426248903861004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1394834855424533</v>
+        <v>0.1473191854041474</v>
       </c>
       <c r="C92">
-        <v>0.01399824302102217</v>
+        <v>0.02583947707079633</v>
       </c>
       <c r="D92">
-        <v>-0.3038295186457792</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2906281888148585</v>
+      </c>
+      <c r="E92">
+        <v>0.1018716493821606</v>
+      </c>
+      <c r="F92">
+        <v>0.01904635007443397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1409039465104802</v>
+        <v>0.1528146448664482</v>
       </c>
       <c r="C93">
-        <v>0.01952287616031635</v>
+        <v>0.02980728299231658</v>
       </c>
       <c r="D93">
-        <v>-0.2693817976849042</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2646000681855402</v>
+      </c>
+      <c r="E93">
+        <v>0.07634864028310116</v>
+      </c>
+      <c r="F93">
+        <v>-0.002472227437193466</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1339756785811599</v>
+        <v>0.1270362407384319</v>
       </c>
       <c r="C94">
-        <v>0.02736827614039941</v>
+        <v>0.02561808514607159</v>
       </c>
       <c r="D94">
-        <v>0.04239338492523003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04001060359157292</v>
+      </c>
+      <c r="E94">
+        <v>-0.05716263793474421</v>
+      </c>
+      <c r="F94">
+        <v>-0.03230319053734108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1242866383211039</v>
+        <v>0.1271125105884261</v>
       </c>
       <c r="C95">
-        <v>0.009564351891170999</v>
+        <v>0.003493115369738943</v>
       </c>
       <c r="D95">
-        <v>0.08667497068647305</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09917171859580694</v>
+      </c>
+      <c r="E95">
+        <v>-0.05433901947313875</v>
+      </c>
+      <c r="F95">
+        <v>-0.001657357254379706</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1210964679218512</v>
+        <v>0.115364633421199</v>
       </c>
       <c r="C96">
-        <v>-0.986896060324557</v>
+        <v>-0.9864737106697873</v>
       </c>
       <c r="D96">
-        <v>-0.01388088345752283</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05133538351059305</v>
+      </c>
+      <c r="E96">
+        <v>-0.05236753938608514</v>
+      </c>
+      <c r="F96">
+        <v>-0.04201910267972316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1944486000340949</v>
+        <v>0.1952475268535317</v>
       </c>
       <c r="C97">
-        <v>-0.00492788004494252</v>
+        <v>-0.005533547154821033</v>
       </c>
       <c r="D97">
-        <v>-0.01329614100406676</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02113834773524881</v>
+      </c>
+      <c r="E97">
+        <v>-0.02046587012143167</v>
+      </c>
+      <c r="F97">
+        <v>0.1141098608176473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1998752775397223</v>
+        <v>0.2066232895365724</v>
       </c>
       <c r="C98">
-        <v>0.01189181023621373</v>
+        <v>0.007781462728739642</v>
       </c>
       <c r="D98">
-        <v>0.01096102686641718</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01451973235258021</v>
+      </c>
+      <c r="E98">
+        <v>0.07633486671376662</v>
+      </c>
+      <c r="F98">
+        <v>0.09189917220546806</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05520058040328797</v>
+        <v>0.05554892856707643</v>
       </c>
       <c r="C99">
-        <v>-0.001978271162309341</v>
+        <v>-0.004058026308256182</v>
       </c>
       <c r="D99">
-        <v>0.02538833967293931</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03847337150782189</v>
+      </c>
+      <c r="E99">
+        <v>-0.02153668419127734</v>
+      </c>
+      <c r="F99">
+        <v>-0.004115941871881595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1429106641253304</v>
+        <v>0.1289419154500888</v>
       </c>
       <c r="C100">
-        <v>-0.03862678545902181</v>
+        <v>-0.05147878387926191</v>
       </c>
       <c r="D100">
-        <v>0.4032140150537636</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3527406965557118</v>
+      </c>
+      <c r="E100">
+        <v>0.8863873984755888</v>
+      </c>
+      <c r="F100">
+        <v>0.144300135267895</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02521444752135595</v>
+        <v>0.028649503505696</v>
       </c>
       <c r="C101">
-        <v>0.00952522081582214</v>
+        <v>0.008818047438307582</v>
       </c>
       <c r="D101">
-        <v>0.02463196352532762</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03075671867598563</v>
+      </c>
+      <c r="E101">
+        <v>-0.01232619166167762</v>
+      </c>
+      <c r="F101">
+        <v>0.01406075174862337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
